--- a/remote eagle/Turn Touch Remote BOM rev 30.xlsx
+++ b/remote eagle/Turn Touch Remote BOM rev 30.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
   <si>
     <t>Turn Touch Remote Revision 30</t>
   </si>
@@ -104,28 +104,16 @@
     <t>ABS07-32.768KHZ-9-T</t>
   </si>
   <si>
-    <t>MDBT40-256V3</t>
-  </si>
-  <si>
-    <t>Raytac NRF51422 BLUETOOTH MODULE</t>
-  </si>
-  <si>
-    <t>MDBT40</t>
+    <t>MDBT40-256RV3</t>
+  </si>
+  <si>
+    <t>Raytac NRF51822 BLUETOOTH MODULE</t>
+  </si>
+  <si>
+    <t>Module</t>
   </si>
   <si>
     <t>U$5</t>
-  </si>
-  <si>
-    <t>.35” 170g</t>
-  </si>
-  <si>
-    <t>SNAPTRON DOME P35 170g</t>
-  </si>
-  <si>
-    <t>DOME-P-SERIES</t>
-  </si>
-  <si>
-    <t>U$1; U$2; U$3; U$4</t>
   </si>
 </sst>
 </file>
@@ -402,7 +390,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -448,22 +436,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1749,48 +1740,40 @@
         <v>33</v>
       </c>
       <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="G7" t="s" s="13">
+        <v>30</v>
+      </c>
       <c r="H7" s="14"/>
     </row>
     <row r="8" ht="20.35" customHeight="1">
-      <c r="A8" s="11">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C8" t="s" s="13">
-        <v>35</v>
-      </c>
-      <c r="D8" t="s" s="13">
-        <v>36</v>
-      </c>
-      <c r="E8" t="s" s="13">
-        <v>37</v>
-      </c>
+      <c r="A8" s="15"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="17"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="18"/>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="18"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="20"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
